--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>758964.9261764758</v>
+        <v>757077.3446600738</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800628</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>190.0910713444383</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>177.9986398356362</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
       <c r="T4" t="n">
-        <v>15.67129869336543</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>28.92900240760912</v>
+        <v>372.0445717845312</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>149.8794763036715</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>139.8939792152983</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>223.3593330834808</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>305.630198985018</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>43.8374309337276</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417095</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>155.5554764474074</v>
+        <v>101.0041688483412</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113168</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>171.0404135625016</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,7 +1822,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>33.35146980185854</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>210.9685212521341</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0.127884415199901</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>122.6519788371599</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>204.1291651532051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>27.61671453262043</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.5645290049878</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>73.31767254005767</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2953,22 +2953,22 @@
         <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.41221638965537</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>91.23070601801219</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>42.20569823125277</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.7610957752358</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
         <v>196.934386695271</v>
@@ -3013,10 +3013,10 @@
         <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>58.84008750083292</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3038,16 +3038,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417194</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274051</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3123,10 +3123,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014431</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522968</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898731</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857183</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692865</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329072</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373706</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789557</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463158</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941875</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069505</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224543</v>
       </c>
     </row>
     <row r="35">
@@ -3275,16 +3275,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274051</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3360,10 +3360,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014431</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522968</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898731</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857183</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692865</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329072</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373706</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789557</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941875</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069505</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224543</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3597,10 +3597,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522968</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.1149309689873</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857182</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692863</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329071</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373705</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789556</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941875</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069505</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224543</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3834,10 +3834,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522968</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898732</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857185</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692866</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329074</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373707</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789559</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346314</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941875</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069505</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224543</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4071,10 +4071,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522968</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898731</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857183</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692865</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329072</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373706</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789557</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941875</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069505</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224543</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2091.914583926163</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C2" t="n">
-        <v>1722.952066985752</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D2" t="n">
-        <v>1364.686368379001</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>978.8981157807568</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.514423990285</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>2478.514423990285</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y2" t="n">
-        <v>2478.514423990285</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,43 +4492,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T4" t="n">
-        <v>564.1527310008552</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U4" t="n">
-        <v>564.1527310008552</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>564.1527310008552</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>1507.939751500713</v>
       </c>
       <c r="C5" t="n">
-        <v>494.1501011631125</v>
+        <v>1507.939751500713</v>
       </c>
       <c r="D5" t="n">
-        <v>494.1501011631125</v>
+        <v>1149.674052893962</v>
       </c>
       <c r="E5" t="n">
-        <v>494.1501011631125</v>
+        <v>763.8858002957179</v>
       </c>
       <c r="F5" t="n">
-        <v>83.16419637350498</v>
+        <v>756.9402995465144</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>576.7355737986852</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>576.7355737986852</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>576.7355737986852</v>
+        <v>195.250031532787</v>
       </c>
       <c r="V7" t="n">
-        <v>576.7355737986852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>576.7355737986852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.353113282533</v>
+        <v>1448.521729839488</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1448.521729839488</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1090.256031232737</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>704.467778634493</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>293.4818738448855</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>279.5584697834764</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.492445258345</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.492445258345</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.353113282533</v>
+        <v>1448.521729839488</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>456.5405636086444</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>201.8560754027576</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405194</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="12">
@@ -5106,16 +5106,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
@@ -5127,7 +5127,7 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5212,7 +5212,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U13" t="n">
-        <v>1341.789526671632</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V13" t="n">
-        <v>1087.105038465745</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W13" t="n">
-        <v>797.6878684287844</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X13" t="n">
-        <v>797.6878684287844</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,13 +5261,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,19 +5276,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>329.1202010073254</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>943.017270764214</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>523.8169520164282</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>523.8169520164282</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>523.8169520164282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1326.148176050325</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1102.362760839831</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>813.2341220533888</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>813.2341220533888</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>523.8169520164282</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>523.8169520164282</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>523.8169520164282</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,13 +5504,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5531,13 +5531,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>634.0455001582214</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.130761344647</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N18" t="n">
-        <v>1517.99338900868</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2298.964529638816</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2503.987010421026</v>
       </c>
       <c r="Q18" t="n">
         <v>2612.943493278838</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.867621687013</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W19" t="n">
-        <v>1009.738445510044</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X19" t="n">
-        <v>781.7488946120263</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028576</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765184</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706316</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181188</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181188</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745886</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,13 +5999,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110079</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555206</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619849</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>841.8631140141295</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2315.73845358094</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>720.4504516500529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>720.4504516500529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>570.3338122377171</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>422.420718655324</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>275.5307711574136</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>275.5307711574136</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>125.112762705357</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688073</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6175,22 +6175,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687014</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V25" t="n">
-        <v>1009.867621687014</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>720.4504516500529</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>720.4504516500529</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>720.4504516500529</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,10 +6212,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,13 +6224,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,34 +6239,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395484</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059517</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333287</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1098.712528333287</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W28" t="n">
-        <v>1024.654273242319</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X28" t="n">
-        <v>796.6647223443018</v>
+        <v>268.6754855415406</v>
       </c>
       <c r="Y28" t="n">
-        <v>575.8721432007717</v>
+        <v>268.6754855415406</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>600.4439501541577</v>
+        <v>439.5324299542163</v>
       </c>
       <c r="C31" t="n">
-        <v>487.2686325076215</v>
+        <v>326.3571123076801</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766565</v>
+        <v>232.0013381767151</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756341</v>
+        <v>139.8491098756927</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590945</v>
+        <v>139.8491098756927</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>139.8491098756927</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>139.8491098756927</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
         <v>369.08763629335</v>
@@ -6628,7 +6628,7 @@
         <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962049</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818802</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894286</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386963</v>
+        <v>902.6804289818919</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220496</v>
+        <v>730.4517433652452</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.3315497030267</v>
+        <v>565.4200295030853</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550611</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610199</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003449</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405204</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028601</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514099</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515101</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.73288364333</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899134</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207837</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014301</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231272</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141876</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465309</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121739</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851624</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590544</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614733</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028601</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>157.2587625717227</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>306.3284467737831</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>553.0935746802479</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1321.46172107271</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736744</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039404</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821614</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108341</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229681</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506733</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504517</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103121</v>
+        <v>221.5295092103132</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982965</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028603</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525397</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649699</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.86094111639</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350131</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184158</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384658</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986525</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942118</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771665</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025264</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859418</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045221</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010328</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,61 +6923,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795201</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619125</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6999,43 +6999,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256438</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277041</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.542980734169</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126632</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790665</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009363</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108339</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,49 +7096,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.84894686497</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350131</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184158</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384658</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986525</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942118</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771665</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025264</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859418</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045219</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010326</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7163,37 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795202</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619125</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7236,40 +7236,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256437</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277041</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341689</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126631</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918007</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136704</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918914</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108342</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229682</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506734</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184158</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384658</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986525</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942118</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771665</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025264</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859418</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045221</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010329</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7473,43 +7473,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256437</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277041</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341689</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141313</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278283</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496981</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384658</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942118</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771665</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025264</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859418</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="44">
@@ -7628,46 +7628,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619125</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7710,37 +7710,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256437</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277041</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341689</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141313</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678165</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980825</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
         <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,52 +7804,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649697</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184158</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384658</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>41.75994765618395</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>223.6742649934479</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>22.04402060665545</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.0374492781458</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>5.100663089358903</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776743</v>
+        <v>85.30006332127834</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>288.409182577675</v>
+        <v>91.23759968302113</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>18.73797368290782</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504429</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>202.5230052237885</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165072</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,13 +11066,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627383</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>188.8856946302353</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928253</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>285.1031356539283</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>130.68187595117</v>
+        <v>185.2331835502362</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>26.88039642110165</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2331835502362</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>75.26883114644323</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.3951139213911</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>57.18000134477744</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>82.39383318338588</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>82.80253093165155</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.5731143188402</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>10.08817004149503</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>213.2053257965333</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437426</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.71057173897914</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571496</v>
+        <v>13.01029060446223</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>104.5413092227049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-2.131628207280301e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
@@ -26320,13 +26320,13 @@
         <v>389994.8406855345</v>
       </c>
       <c r="E2" t="n">
-        <v>371477.6067508236</v>
+        <v>371477.6067508234</v>
       </c>
       <c r="F2" t="n">
-        <v>371477.6067508236</v>
+        <v>371477.6067508237</v>
       </c>
       <c r="G2" t="n">
-        <v>371477.6067508236</v>
+        <v>371477.6067508235</v>
       </c>
       <c r="H2" t="n">
         <v>371477.6067508236</v>
@@ -26335,25 +26335,25 @@
         <v>371477.6067508237</v>
       </c>
       <c r="J2" t="n">
-        <v>371477.6067508236</v>
+        <v>371477.6067508235</v>
       </c>
       <c r="K2" t="n">
         <v>386481.0304780068</v>
       </c>
       <c r="L2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="M2" t="n">
         <v>389994.8406855347</v>
       </c>
       <c r="N2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="O2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="P2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855346</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925925</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284545</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086688</v>
+        <v>10342.90680086849</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338366</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.6053028456</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868708</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="I4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106723</v>
+        <v>40339.23010106722</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819077</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819109</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819114</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819109</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819109</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002554</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-448464.9843789438</v>
+        <v>-448464.984378944</v>
       </c>
       <c r="C6" t="n">
         <v>141502.8948356007</v>
@@ -26528,37 +26528,37 @@
         <v>141502.8948356006</v>
       </c>
       <c r="E6" t="n">
-        <v>-267844.3632616599</v>
+        <v>-267941.822387632</v>
       </c>
       <c r="F6" t="n">
-        <v>257315.6732152362</v>
+        <v>257218.2140892642</v>
       </c>
       <c r="G6" t="n">
-        <v>257315.6732152362</v>
+        <v>257218.214089264</v>
       </c>
       <c r="H6" t="n">
-        <v>257315.6732152362</v>
+        <v>257218.2140892641</v>
       </c>
       <c r="I6" t="n">
-        <v>257315.673215236</v>
+        <v>257218.2140892638</v>
       </c>
       <c r="J6" t="n">
-        <v>80892.45402264333</v>
+        <v>80794.99489667147</v>
       </c>
       <c r="K6" t="n">
-        <v>205350.9865438713</v>
+        <v>205332.4928059368</v>
       </c>
       <c r="L6" t="n">
-        <v>237343.4332364513</v>
+        <v>237343.4332364497</v>
       </c>
       <c r="M6" t="n">
-        <v>112885.3248034809</v>
+        <v>112885.3248034816</v>
       </c>
       <c r="N6" t="n">
-        <v>247686.3400373182</v>
+        <v>247686.3400373179</v>
       </c>
       <c r="O6" t="n">
-        <v>247686.3400373182</v>
+        <v>247686.340037318</v>
       </c>
       <c r="P6" t="n">
         <v>203523.7347344725</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,7 +26750,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26759,25 +26759,25 @@
         <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541019</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541019</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26817,7 +26817,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253575</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010836</v>
+        <v>12.92863350108354</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990151</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>175.1818204265692</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>228.8774059060752</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27436,16 +27436,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>21.8741453697219</v>
       </c>
       <c r="T4" t="n">
-        <v>209.3638067647188</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>384.8551676131859</v>
+        <v>41.73959823626376</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>62.26606264634739</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>112.2436641085297</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>100.5634396808764</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>43.610769732395</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>242.4444433082501</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.927418225022848e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-5.807791702264606e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964052</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964052</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964054</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964052</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443623</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.327311296121</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041496</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956553</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927197</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540897</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947002</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647503</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446482</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104664</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562947</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386729</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127076</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622988</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358992</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724855</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813471</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855535</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458556</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710961</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677471</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361504</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990348</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298639</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171324</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263755</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469077</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235694</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337683</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336906</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892258</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351831</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443623</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.327311296121</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041496</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956553</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927197</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540897</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947002</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647503</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446482</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104664</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562947</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386729</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127076</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622988</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358992</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724855</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813471</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855535</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458556</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710961</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677471</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361504</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990348</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298639</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171324</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263755</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469077</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235694</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337683</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336906</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892258</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351831</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>192.3353862441232</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,13 +35741,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>374.2497035813871</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>110.0570533917296</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36212,7 +36212,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36221,7 +36221,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330525</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560245</v>
@@ -36446,19 +36446,19 @@
         <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>525.556183571462</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>93.11369587443312</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
         <v>178.3836006118009</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336987</v>
+        <v>334.5577682773026</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336993</v>
+        <v>340.4953046390455</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415085</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221128</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408113</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951483</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502055</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034985</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>60.64815263781482</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879398</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560251</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004671</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980137</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178385</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315253</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507456</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686886</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520627</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595514</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095695</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086135</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352446</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502438</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414417</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415085</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109007</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221128</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408113</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951483</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502055</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034985</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.910178954907</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879398</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560251</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004671</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980137</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241109</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>409.6164201553138</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209237</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686886</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520627</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595514</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095695</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086135</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352446</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502438</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414417</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490697</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879397</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004669</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145209</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315253</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850745</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520626</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595514</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095695</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086134</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352446</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502438</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414416</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951412</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490697</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879397</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415672</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>395.9791095617606</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686883</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595514</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095694</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086134</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352446</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502437</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414416</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221054</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490697</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879397</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178385</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>492.1965505854536</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595514</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095695</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086134</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352446</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502437</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414416</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
